--- a/config_12.29/shoping_config_xiaomi.xlsx
+++ b/config_12.29/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8515,7 +8515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8745,6 +8745,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11179,10 +11182,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W411" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
+      <selection pane="bottomRight" activeCell="AA417" sqref="AA417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37498,411 +37501,411 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A415" s="6">
+    <row r="415" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="40">
         <v>414</v>
       </c>
-      <c r="B415" s="5">
+      <c r="B415" s="40">
         <v>10331</v>
       </c>
-      <c r="F415" s="5">
-        <v>1</v>
-      </c>
-      <c r="G415" s="6" t="s">
+      <c r="F415" s="40">
+        <v>1</v>
+      </c>
+      <c r="G415" s="40" t="s">
         <v>1425</v>
       </c>
-      <c r="I415" s="6" t="s">
+      <c r="I415" s="40" t="s">
         <v>1426</v>
       </c>
-      <c r="J415" s="6" t="s">
+      <c r="J415" s="40" t="s">
         <v>1427</v>
       </c>
-      <c r="L415" s="6">
+      <c r="L415" s="40">
         <v>-31</v>
       </c>
-      <c r="M415" s="5">
-        <v>0</v>
-      </c>
-      <c r="N415" s="5">
-        <v>0</v>
-      </c>
-      <c r="O415" s="5" t="s">
+      <c r="M415" s="40">
+        <v>0</v>
+      </c>
+      <c r="N415" s="40">
+        <v>0</v>
+      </c>
+      <c r="O415" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P415" s="6">
+      <c r="P415" s="40">
         <v>600</v>
       </c>
-      <c r="Q415" s="5" t="s">
+      <c r="Q415" s="40" t="s">
         <v>1428</v>
       </c>
-      <c r="R415" s="52" t="s">
+      <c r="R415" s="41" t="s">
         <v>1429</v>
       </c>
-      <c r="W415" s="6" t="s">
+      <c r="W415" s="40" t="s">
         <v>1430</v>
       </c>
-      <c r="X415" s="14" t="s">
+      <c r="X415" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y415" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z415" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA415" s="6">
+      <c r="Y415" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z415" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA415" s="40">
         <v>49</v>
       </c>
-      <c r="AH415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM415" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A416" s="6">
+      <c r="AH415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM415" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="40">
         <v>415</v>
       </c>
-      <c r="B416" s="5">
+      <c r="B416" s="40">
         <v>10332</v>
       </c>
-      <c r="F416" s="5">
-        <v>1</v>
-      </c>
-      <c r="G416" s="6" t="s">
+      <c r="F416" s="40">
+        <v>1</v>
+      </c>
+      <c r="G416" s="40" t="s">
         <v>1431</v>
       </c>
-      <c r="I416" s="6" t="s">
+      <c r="I416" s="40" t="s">
         <v>1432</v>
       </c>
-      <c r="J416" s="6" t="s">
+      <c r="J416" s="40" t="s">
         <v>1433</v>
       </c>
-      <c r="L416" s="6">
+      <c r="L416" s="40">
         <v>-31</v>
       </c>
-      <c r="M416" s="5">
-        <v>0</v>
-      </c>
-      <c r="N416" s="5">
-        <v>0</v>
-      </c>
-      <c r="O416" s="5" t="s">
+      <c r="M416" s="40">
+        <v>0</v>
+      </c>
+      <c r="N416" s="40">
+        <v>0</v>
+      </c>
+      <c r="O416" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P416" s="6">
+      <c r="P416" s="40">
         <v>1800</v>
       </c>
-      <c r="Q416" s="5" t="s">
+      <c r="Q416" s="40" t="s">
         <v>1434</v>
       </c>
-      <c r="R416" s="52" t="s">
+      <c r="R416" s="41" t="s">
         <v>1435</v>
       </c>
-      <c r="W416" s="6" t="s">
+      <c r="W416" s="40" t="s">
         <v>1430</v>
       </c>
-      <c r="X416" s="14" t="s">
+      <c r="X416" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y416" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z416" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA416" s="6">
+      <c r="Y416" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z416" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA416" s="40">
         <v>49</v>
       </c>
-      <c r="AH416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM416" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A417" s="5">
+      <c r="AH416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM416" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="40">
         <v>416</v>
       </c>
-      <c r="B417" s="5">
+      <c r="B417" s="40">
         <v>10333</v>
       </c>
-      <c r="F417" s="5">
-        <v>1</v>
-      </c>
-      <c r="G417" s="6" t="s">
+      <c r="F417" s="40">
+        <v>1</v>
+      </c>
+      <c r="G417" s="40" t="s">
         <v>1436</v>
       </c>
-      <c r="I417" s="6" t="s">
+      <c r="I417" s="40" t="s">
         <v>1437</v>
       </c>
-      <c r="J417" s="6" t="s">
+      <c r="J417" s="40" t="s">
         <v>1438</v>
       </c>
-      <c r="L417" s="6">
+      <c r="L417" s="40">
         <v>-31</v>
       </c>
-      <c r="M417" s="5">
-        <v>0</v>
-      </c>
-      <c r="N417" s="5">
-        <v>0</v>
-      </c>
-      <c r="O417" s="5" t="s">
+      <c r="M417" s="40">
+        <v>0</v>
+      </c>
+      <c r="N417" s="40">
+        <v>0</v>
+      </c>
+      <c r="O417" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P417" s="6">
+      <c r="P417" s="40">
         <v>4800</v>
       </c>
-      <c r="Q417" s="5" t="s">
+      <c r="Q417" s="40" t="s">
         <v>1115</v>
       </c>
-      <c r="R417" s="52" t="s">
+      <c r="R417" s="41" t="s">
         <v>1435</v>
       </c>
-      <c r="W417" s="6" t="s">
+      <c r="W417" s="40" t="s">
         <v>1118</v>
       </c>
-      <c r="X417" s="14" t="s">
+      <c r="X417" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y417" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z417" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA417" s="6">
+      <c r="Y417" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z417" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA417" s="40">
         <v>49</v>
       </c>
-      <c r="AH417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM417" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A418" s="5">
+      <c r="AH417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM417" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="40">
         <v>417</v>
       </c>
-      <c r="B418" s="5">
+      <c r="B418" s="40">
         <v>10334</v>
       </c>
-      <c r="F418" s="5">
-        <v>1</v>
-      </c>
-      <c r="G418" s="6" t="s">
+      <c r="F418" s="40">
+        <v>1</v>
+      </c>
+      <c r="G418" s="40" t="s">
         <v>1439</v>
       </c>
-      <c r="I418" s="6" t="s">
+      <c r="I418" s="40" t="s">
         <v>1440</v>
       </c>
-      <c r="J418" s="6" t="s">
+      <c r="J418" s="40" t="s">
         <v>1427</v>
       </c>
-      <c r="L418" s="6">
+      <c r="L418" s="40">
         <v>-31</v>
       </c>
-      <c r="M418" s="5">
-        <v>0</v>
-      </c>
-      <c r="N418" s="5">
-        <v>0</v>
-      </c>
-      <c r="O418" s="5" t="s">
+      <c r="M418" s="40">
+        <v>0</v>
+      </c>
+      <c r="N418" s="40">
+        <v>0</v>
+      </c>
+      <c r="O418" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P418" s="6">
+      <c r="P418" s="40">
         <v>9800</v>
       </c>
-      <c r="Q418" s="5" t="s">
+      <c r="Q418" s="40" t="s">
         <v>1117</v>
       </c>
-      <c r="R418" s="52" t="s">
+      <c r="R418" s="41" t="s">
         <v>1429</v>
       </c>
-      <c r="W418" s="6" t="s">
+      <c r="W418" s="40" t="s">
         <v>1118</v>
       </c>
-      <c r="X418" s="14" t="s">
+      <c r="X418" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y418" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z418" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA418" s="6">
+      <c r="Y418" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z418" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA418" s="40">
         <v>50</v>
       </c>
-      <c r="AH418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM418" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A419" s="6">
+      <c r="AH418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM418" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="40">
         <v>418</v>
       </c>
-      <c r="B419" s="5">
+      <c r="B419" s="40">
         <v>10335</v>
       </c>
-      <c r="F419" s="5">
-        <v>1</v>
-      </c>
-      <c r="G419" s="6" t="s">
+      <c r="F419" s="40">
+        <v>1</v>
+      </c>
+      <c r="G419" s="40" t="s">
         <v>1441</v>
       </c>
-      <c r="I419" s="6" t="s">
+      <c r="I419" s="40" t="s">
         <v>1442</v>
       </c>
-      <c r="J419" s="6" t="s">
+      <c r="J419" s="40" t="s">
         <v>1438</v>
       </c>
-      <c r="L419" s="6">
+      <c r="L419" s="40">
         <v>-31</v>
       </c>
-      <c r="M419" s="5">
-        <v>0</v>
-      </c>
-      <c r="N419" s="5">
-        <v>0</v>
-      </c>
-      <c r="O419" s="5" t="s">
+      <c r="M419" s="40">
+        <v>0</v>
+      </c>
+      <c r="N419" s="40">
+        <v>0</v>
+      </c>
+      <c r="O419" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P419" s="6">
+      <c r="P419" s="40">
         <v>19800</v>
       </c>
-      <c r="Q419" s="5" t="s">
+      <c r="Q419" s="40" t="s">
         <v>1119</v>
       </c>
-      <c r="R419" s="52" t="s">
+      <c r="R419" s="41" t="s">
         <v>1111</v>
       </c>
-      <c r="W419" s="6" t="s">
+      <c r="W419" s="40" t="s">
         <v>1118</v>
       </c>
-      <c r="X419" s="14" t="s">
+      <c r="X419" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y419" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z419" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA419" s="6">
+      <c r="Y419" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z419" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA419" s="40">
         <v>50</v>
       </c>
-      <c r="AH419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM419" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A420" s="6">
+      <c r="AH419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM419" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="40">
         <v>419</v>
       </c>
-      <c r="B420" s="5">
+      <c r="B420" s="40">
         <v>10336</v>
       </c>
-      <c r="F420" s="5">
-        <v>1</v>
-      </c>
-      <c r="G420" s="6" t="s">
+      <c r="F420" s="40">
+        <v>1</v>
+      </c>
+      <c r="G420" s="40" t="s">
         <v>1443</v>
       </c>
-      <c r="I420" s="6" t="s">
+      <c r="I420" s="40" t="s">
         <v>1442</v>
       </c>
-      <c r="J420" s="6" t="s">
+      <c r="J420" s="40" t="s">
         <v>1433</v>
       </c>
-      <c r="L420" s="6">
+      <c r="L420" s="40">
         <v>-31</v>
       </c>
-      <c r="M420" s="5">
-        <v>0</v>
-      </c>
-      <c r="N420" s="5">
-        <v>0</v>
-      </c>
-      <c r="O420" s="5" t="s">
+      <c r="M420" s="40">
+        <v>0</v>
+      </c>
+      <c r="N420" s="40">
+        <v>0</v>
+      </c>
+      <c r="O420" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P420" s="6">
+      <c r="P420" s="40">
         <v>49800</v>
       </c>
-      <c r="Q420" s="5" t="s">
+      <c r="Q420" s="40" t="s">
         <v>1120</v>
       </c>
-      <c r="R420" s="52" t="s">
+      <c r="R420" s="41" t="s">
         <v>1429</v>
       </c>
-      <c r="W420" s="6" t="s">
+      <c r="W420" s="40" t="s">
         <v>1118</v>
       </c>
-      <c r="X420" s="14" t="s">
+      <c r="X420" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Y420" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z420" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA420" s="6">
+      <c r="Y420" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z420" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA420" s="40">
         <v>50</v>
       </c>
-      <c r="AH420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM420" s="5">
+      <c r="AH420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM420" s="40">
         <v>1</v>
       </c>
     </row>

--- a/config_12.29/shoping_config_xiaomi.xlsx
+++ b/config_12.29/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1895">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8297,6 +8297,30 @@
   </si>
   <si>
     <t>首充加赠8508888</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1880万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>998元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8375,7 +8399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8472,6 +8496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8515,7 +8545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8748,6 +8778,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11179,13 +11215,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN492"/>
+  <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W411" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA417" sqref="AA417"/>
+      <selection pane="bottomRight" activeCell="C506" sqref="C505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42592,6 +42628,168 @@
         <v>1</v>
       </c>
     </row>
+    <row r="493" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A493" s="19">
+        <v>492</v>
+      </c>
+      <c r="B493" s="78">
+        <v>10409</v>
+      </c>
+      <c r="C493" s="78"/>
+      <c r="D493" s="78"/>
+      <c r="E493" s="78"/>
+      <c r="F493" s="78">
+        <v>1</v>
+      </c>
+      <c r="G493" s="78" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H493" s="78"/>
+      <c r="I493" s="78" t="s">
+        <v>1890</v>
+      </c>
+      <c r="J493" s="78" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K493" s="78"/>
+      <c r="L493" s="78">
+        <v>-31</v>
+      </c>
+      <c r="M493" s="78">
+        <v>0</v>
+      </c>
+      <c r="N493" s="78">
+        <v>0</v>
+      </c>
+      <c r="O493" s="78" t="s">
+        <v>493</v>
+      </c>
+      <c r="P493" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q493" s="78" t="s">
+        <v>1892</v>
+      </c>
+      <c r="R493" s="79" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S493" s="78"/>
+      <c r="T493" s="78"/>
+      <c r="U493" s="78"/>
+      <c r="V493" s="78"/>
+      <c r="W493" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="X493" s="78">
+        <v>9999999</v>
+      </c>
+      <c r="Y493" s="78">
+        <v>1609200000</v>
+      </c>
+      <c r="Z493" s="78">
+        <v>1609775999</v>
+      </c>
+      <c r="AA493" s="78"/>
+      <c r="AB493" s="78"/>
+      <c r="AC493" s="78"/>
+      <c r="AD493" s="78"/>
+      <c r="AE493" s="78"/>
+      <c r="AF493" s="78"/>
+      <c r="AG493" s="78"/>
+      <c r="AH493" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A494" s="19">
+        <v>493</v>
+      </c>
+      <c r="B494" s="78">
+        <v>10410</v>
+      </c>
+      <c r="C494" s="78"/>
+      <c r="D494" s="78"/>
+      <c r="E494" s="78"/>
+      <c r="F494" s="78">
+        <v>1</v>
+      </c>
+      <c r="G494" s="78" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H494" s="78"/>
+      <c r="I494" s="78" t="s">
+        <v>1894</v>
+      </c>
+      <c r="J494" s="78" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K494" s="78"/>
+      <c r="L494" s="78">
+        <v>-31</v>
+      </c>
+      <c r="M494" s="78">
+        <v>0</v>
+      </c>
+      <c r="N494" s="78">
+        <v>0</v>
+      </c>
+      <c r="O494" s="78" t="s">
+        <v>493</v>
+      </c>
+      <c r="P494" s="78">
+        <v>99800</v>
+      </c>
+      <c r="Q494" s="78" t="s">
+        <v>1892</v>
+      </c>
+      <c r="R494" s="79" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S494" s="78"/>
+      <c r="T494" s="78"/>
+      <c r="U494" s="78"/>
+      <c r="V494" s="78"/>
+      <c r="W494" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="X494" s="78">
+        <v>9999999</v>
+      </c>
+      <c r="Y494" s="78">
+        <v>1609200000</v>
+      </c>
+      <c r="Z494" s="78">
+        <v>1609775999</v>
+      </c>
+      <c r="AA494" s="78"/>
+      <c r="AB494" s="78"/>
+      <c r="AC494" s="78"/>
+      <c r="AD494" s="78"/>
+      <c r="AE494" s="78"/>
+      <c r="AF494" s="78"/>
+      <c r="AG494" s="78"/>
+      <c r="AH494" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.29/shoping_config_xiaomi.xlsx
+++ b/config_12.29/shoping_config_xiaomi.xlsx
@@ -8316,11 +8316,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>18800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>998元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11218,10 +11218,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C506" sqref="C505:C506"/>
+      <selection pane="bottomRight" activeCell="R494" sqref="R494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42671,7 +42671,7 @@
         <v>1892</v>
       </c>
       <c r="R493" s="79" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="S493" s="78"/>
       <c r="T493" s="78"/>
@@ -42727,7 +42727,7 @@
       </c>
       <c r="H494" s="78"/>
       <c r="I494" s="78" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="J494" s="78" t="s">
         <v>1891</v>
@@ -42752,7 +42752,7 @@
         <v>1892</v>
       </c>
       <c r="R494" s="79" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="S494" s="78"/>
       <c r="T494" s="78"/>

--- a/config_12.29/shoping_config_xiaomi.xlsx
+++ b/config_12.29/shoping_config_xiaomi.xlsx
@@ -10984,10 +10984,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q496" sqref="Q496"/>
+      <selection pane="bottomRight" activeCell="X493" sqref="X493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42447,7 +42447,7 @@
         <v>524</v>
       </c>
       <c r="X493" s="78">
-        <v>9999999</v>
+        <v>200</v>
       </c>
       <c r="Y493" s="78">
         <v>1609200000</v>

--- a/config_12.29/shoping_config_xiaomi.xlsx
+++ b/config_12.29/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1893">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8088,6 +8088,30 @@
   </si>
   <si>
     <t>"金币宝箱抽奖券",</t>
+  </si>
+  <si>
+    <t>VIP11礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8888万金币","水滴*30","玩具锤*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>88880000,30,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9888万金币","水滴*40","玩具锤*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10981,13 +11005,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN494"/>
+  <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X493" sqref="X493"/>
+      <selection pane="bottomRight" activeCell="A495" sqref="A495:XFD496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42556,6 +42580,172 @@
         <v>1</v>
       </c>
     </row>
+    <row r="495" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A495" s="43">
+        <v>494</v>
+      </c>
+      <c r="B495" s="43">
+        <v>10411</v>
+      </c>
+      <c r="C495" s="43"/>
+      <c r="D495" s="43"/>
+      <c r="E495" s="43"/>
+      <c r="F495" s="43">
+        <v>1</v>
+      </c>
+      <c r="G495" s="43" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H495" s="43"/>
+      <c r="I495" s="43"/>
+      <c r="J495" s="43" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K495" s="43"/>
+      <c r="L495" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M495" s="43">
+        <v>0</v>
+      </c>
+      <c r="N495" s="43">
+        <v>0</v>
+      </c>
+      <c r="O495" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="P495" s="43">
+        <v>79800</v>
+      </c>
+      <c r="Q495" s="43" t="s">
+        <v>1642</v>
+      </c>
+      <c r="R495" s="66" t="s">
+        <v>1889</v>
+      </c>
+      <c r="S495" s="43"/>
+      <c r="T495" s="43"/>
+      <c r="U495" s="43"/>
+      <c r="V495" s="43"/>
+      <c r="W495" s="43" t="s">
+        <v>981</v>
+      </c>
+      <c r="X495" s="43">
+        <v>99999999</v>
+      </c>
+      <c r="Y495" s="43">
+        <v>1592263800</v>
+      </c>
+      <c r="Z495" s="43">
+        <v>2552233600</v>
+      </c>
+      <c r="AA495" s="43">
+        <v>14</v>
+      </c>
+      <c r="AB495" s="43"/>
+      <c r="AC495" s="43"/>
+      <c r="AD495" s="43"/>
+      <c r="AE495" s="43"/>
+      <c r="AF495" s="43"/>
+      <c r="AG495" s="43"/>
+      <c r="AH495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AJ495" s="43"/>
+      <c r="AK495" s="43"/>
+      <c r="AL495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A496" s="43">
+        <v>495</v>
+      </c>
+      <c r="B496" s="43">
+        <v>10412</v>
+      </c>
+      <c r="C496" s="43"/>
+      <c r="D496" s="43"/>
+      <c r="E496" s="43"/>
+      <c r="F496" s="43">
+        <v>1</v>
+      </c>
+      <c r="G496" s="43" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H496" s="43"/>
+      <c r="I496" s="43"/>
+      <c r="J496" s="43" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K496" s="43"/>
+      <c r="L496" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M496" s="43">
+        <v>0</v>
+      </c>
+      <c r="N496" s="43">
+        <v>0</v>
+      </c>
+      <c r="O496" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="P496" s="43">
+        <v>89800</v>
+      </c>
+      <c r="Q496" s="43" t="s">
+        <v>1642</v>
+      </c>
+      <c r="R496" s="66" t="s">
+        <v>1892</v>
+      </c>
+      <c r="S496" s="43"/>
+      <c r="T496" s="43"/>
+      <c r="U496" s="43"/>
+      <c r="V496" s="43"/>
+      <c r="W496" s="43" t="s">
+        <v>981</v>
+      </c>
+      <c r="X496" s="43">
+        <v>99999999</v>
+      </c>
+      <c r="Y496" s="43">
+        <v>1592263800</v>
+      </c>
+      <c r="Z496" s="43">
+        <v>2552233600</v>
+      </c>
+      <c r="AA496" s="43">
+        <v>14</v>
+      </c>
+      <c r="AB496" s="43"/>
+      <c r="AC496" s="43"/>
+      <c r="AD496" s="43"/>
+      <c r="AE496" s="43"/>
+      <c r="AF496" s="43"/>
+      <c r="AG496" s="43"/>
+      <c r="AH496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AJ496" s="43"/>
+      <c r="AK496" s="43"/>
+      <c r="AL496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.29/shoping_config_xiaomi.xlsx
+++ b/config_12.29/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9040,7 +9040,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F2:F28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9185,7 +9185,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9265,7 +9267,9 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9345,7 +9349,9 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9425,7 +9431,9 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9505,7 +9513,9 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9585,7 +9595,9 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9665,7 +9677,9 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9745,7 +9759,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9824,6 +9840,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -9904,7 +9923,9 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -10906,7 +10927,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1056</v>
       </c>
@@ -11008,10 +11031,10 @@
   <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A495" sqref="A495:XFD496"/>
+      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14864,7 +14887,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -14923,7 +14946,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -14982,7 +15005,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15041,7 +15064,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15100,7 +15123,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16448,7 +16471,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18482,7 +18505,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18541,7 +18564,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1126</v>
@@ -27844,7 +27867,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37279,7 +37302,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1375</v>
